--- a/Revised decison matrix using M-5.xlsx
+++ b/Revised decison matrix using M-5.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heshifan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E96CE1-D08B-1A48-AE75-522A8E55C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expert_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Expert_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Expert_3" sheetId="4" r:id="rId3"/>
-    <sheet name="Expert_4" sheetId="5" r:id="rId4"/>
-    <sheet name="Expert_5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Expert_1" r:id="rId4" sheetId="2"/>
+    <sheet name="Expert_2" r:id="rId6" sheetId="3"/>
+    <sheet name="Expert_3" r:id="rId7" sheetId="4"/>
+    <sheet name="Expert_4" r:id="rId8" sheetId="5"/>
+    <sheet name="Expert_5" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Alternative_1</t>
   </si>
@@ -110,19 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,413 +455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83944523-972B-764B-9B9F-19935C2C4E5A}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0.33304346872407081</v>
-      </c>
-      <c r="C2">
-        <v>0.43900680660885782</v>
-      </c>
-      <c r="D2">
-        <v>0.50307637324091303</v>
-      </c>
-      <c r="E2">
-        <v>0.63588027916241086</v>
-      </c>
-      <c r="F2">
-        <v>0.73502758568578763</v>
-      </c>
-      <c r="G2">
-        <v>0.64755246743338113</v>
-      </c>
-      <c r="H2">
-        <v>0.46591391345013489</v>
-      </c>
-      <c r="I2">
-        <v>0.4118298247642152</v>
-      </c>
-      <c r="J2">
-        <v>0.37440392264086586</v>
-      </c>
-      <c r="K2">
-        <v>0.3954772715417133</v>
-      </c>
-      <c r="L2">
-        <v>0.59094355568071466</v>
-      </c>
-      <c r="M2">
-        <v>0.92967742884225024</v>
-      </c>
-      <c r="N2">
-        <v>0.50870369407293892</v>
-      </c>
-      <c r="O2">
-        <v>0.97379682026495495</v>
-      </c>
-      <c r="P2">
-        <v>0.4388438882982213</v>
-      </c>
-      <c r="Q2">
-        <v>0.61175990779942713</v>
-      </c>
-      <c r="R2">
-        <v>0.73091595514769492</v>
-      </c>
-      <c r="S2">
-        <v>0.25138311085699944</v>
-      </c>
-      <c r="T2">
-        <v>0.89835216439861376</v>
-      </c>
-      <c r="U2">
-        <v>0.91588785997731215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0.76184440711795653</v>
-      </c>
-      <c r="C3">
-        <v>0.67775511154879597</v>
-      </c>
-      <c r="D3">
-        <v>0.38191678041790916</v>
-      </c>
-      <c r="E3">
-        <v>0.65389212368309713</v>
-      </c>
-      <c r="F3">
-        <v>0.77033783855808213</v>
-      </c>
-      <c r="G3">
-        <v>0.83527234086475033</v>
-      </c>
-      <c r="H3">
-        <v>0.7720000095078402</v>
-      </c>
-      <c r="I3">
-        <v>0.57656471539027809</v>
-      </c>
-      <c r="J3">
-        <v>0.65517242330106873</v>
-      </c>
-      <c r="K3">
-        <v>0.85401318356112288</v>
-      </c>
-      <c r="L3">
-        <v>0.45324297074735831</v>
-      </c>
-      <c r="M3">
-        <v>0.45378598671980297</v>
-      </c>
-      <c r="N3">
-        <v>0.67215684410265097</v>
-      </c>
-      <c r="O3">
-        <v>0.23833957798185235</v>
-      </c>
-      <c r="P3">
-        <v>0.48494361472290382</v>
-      </c>
-      <c r="Q3">
-        <v>0.37169292426914946</v>
-      </c>
-      <c r="R3">
-        <v>0.60331266502033498</v>
-      </c>
-      <c r="S3">
-        <v>0.51501357280583804</v>
-      </c>
-      <c r="T3">
-        <v>0.34073742649534244</v>
-      </c>
-      <c r="U3">
-        <v>0.77794679956207557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>0.38965231051399324</v>
-      </c>
-      <c r="C4">
-        <v>0.62125362942875451</v>
-      </c>
-      <c r="D4">
-        <v>0.43538003711106638</v>
-      </c>
-      <c r="E4">
-        <v>0.30599088303970673</v>
-      </c>
-      <c r="F4">
-        <v>0.22538475216984624</v>
-      </c>
-      <c r="G4">
-        <v>0.1731735582721671</v>
-      </c>
-      <c r="H4">
-        <v>0.17345416163726754</v>
-      </c>
-      <c r="I4">
-        <v>0.36454067668359647</v>
-      </c>
-      <c r="J4">
-        <v>0.2753621680200391</v>
-      </c>
-      <c r="K4">
-        <v>0.2987173670547113</v>
-      </c>
-      <c r="L4">
-        <v>0.2799999904913994</v>
-      </c>
-      <c r="M4">
-        <v>0.22069219452437142</v>
-      </c>
-      <c r="N4">
-        <v>0.66394761565070048</v>
-      </c>
-      <c r="O4">
-        <v>0.45286765656666639</v>
-      </c>
-      <c r="P4">
-        <v>0.40657029892315816</v>
-      </c>
-      <c r="Q4">
-        <v>0.58824088171873967</v>
-      </c>
-      <c r="R4">
-        <v>0.22360293166644815</v>
-      </c>
-      <c r="S4">
-        <v>0.78260965868343269</v>
-      </c>
-      <c r="T4">
-        <v>0.26569898540068049</v>
-      </c>
-      <c r="U4">
-        <v>4.2846504095419562E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0.84755948865884378</v>
-      </c>
-      <c r="C5">
-        <v>0.45794408478084486</v>
-      </c>
-      <c r="D5">
-        <v>0.454797159103487</v>
-      </c>
-      <c r="E5">
-        <v>0.35442306741455709</v>
-      </c>
-      <c r="F5">
-        <v>0.69760519761595741</v>
-      </c>
-      <c r="G5">
-        <v>0.33190985042936616</v>
-      </c>
-      <c r="H5">
-        <v>0.35525707109999943</v>
-      </c>
-      <c r="I5">
-        <v>0.59172949696325672</v>
-      </c>
-      <c r="J5">
-        <v>0.28042862926394013</v>
-      </c>
-      <c r="K5">
-        <v>8.7247256044935426E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.27656778833505047</v>
-      </c>
-      <c r="M5">
-        <v>0.47261815873958668</v>
-      </c>
-      <c r="N5">
-        <v>0.16389047351245492</v>
-      </c>
-      <c r="O5">
-        <v>0.27941154374366062</v>
-      </c>
-      <c r="P5">
-        <v>0.17128866781061683</v>
-      </c>
-      <c r="Q5">
-        <v>0.59312686084744837</v>
-      </c>
-      <c r="R5">
-        <v>0.38810809859115791</v>
-      </c>
-      <c r="S5">
-        <v>0.348962143649165</v>
-      </c>
-      <c r="T5">
-        <v>0.59454033823312946</v>
-      </c>
-      <c r="U5">
-        <v>0.60290114807080875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0.37398943389259853</v>
-      </c>
-      <c r="C6">
-        <v>0.23916618758200234</v>
-      </c>
-      <c r="D6">
-        <v>0.58474334814118611</v>
-      </c>
-      <c r="E6">
-        <v>0.32739575242339158</v>
-      </c>
-      <c r="F6">
-        <v>0.29872849467350787</v>
-      </c>
-      <c r="G6">
-        <v>0.33621612254474853</v>
-      </c>
-      <c r="H6">
-        <v>0.42768447896487205</v>
-      </c>
-      <c r="I6">
-        <v>0.66083535007175231</v>
-      </c>
-      <c r="J6">
-        <v>0.8479512485998727</v>
-      </c>
-      <c r="K6">
-        <v>0.33648619295868543</v>
-      </c>
-      <c r="L6">
-        <v>0.97200324039533925</v>
-      </c>
-      <c r="M6">
-        <v>0.33830091033686177</v>
-      </c>
-      <c r="N6">
-        <v>0.3652514729647568</v>
-      </c>
-      <c r="O6">
-        <v>0.44377694426080655</v>
-      </c>
-      <c r="P6">
-        <v>0.65985697135816812</v>
-      </c>
-      <c r="Q6">
-        <v>0.39999999555598992</v>
-      </c>
-      <c r="R6">
-        <v>0.83874510702287874</v>
-      </c>
-      <c r="S6">
-        <v>0.73801958082212782</v>
-      </c>
-      <c r="T6">
-        <v>0.40462427745741625</v>
-      </c>
-      <c r="U6">
-        <v>0.42857129429273189</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A484A616-86B8-A745-8568-E4EFD9A73875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -936,64 +541,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.33304346905925197</v>
+        <v>0.5122448984401483</v>
       </c>
       <c r="C2">
-        <v>0.26026989037422166</v>
+        <v>0.29411764193932394</v>
       </c>
       <c r="D2">
-        <v>0.39199999999965418</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="E2">
-        <v>0.77528675872879615</v>
+        <v>0.4877550990854912</v>
       </c>
       <c r="F2">
-        <v>0.53502756680299313</v>
+        <v>0.3513875547809739</v>
       </c>
       <c r="G2">
-        <v>0.44755244883580853</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="H2">
-        <v>0.61170212766183008</v>
+        <v>0.2799589853953936</v>
       </c>
       <c r="I2">
-        <v>0.61182984335952439</v>
+        <v>0.6486124436568271</v>
       </c>
       <c r="J2">
-        <v>0.17440390403948369</v>
+        <v>0.7058823588508772</v>
       </c>
       <c r="K2">
-        <v>0.47953213837394232</v>
+        <v>0.3772344244156924</v>
       </c>
       <c r="L2">
-        <v>0.39094353708538854</v>
+        <v>0.6486124441608592</v>
       </c>
       <c r="M2">
-        <v>0.92967742845174028</v>
+        <v>0.32013755682378575</v>
       </c>
       <c r="N2">
-        <v>0.7087037128002468</v>
+        <v>0.35138755583916037</v>
       </c>
       <c r="O2">
-        <v>0.97379681988115285</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="P2">
-        <v>0.2388438695546381</v>
+        <v>0.6227655754297353</v>
       </c>
       <c r="Q2">
-        <v>0.50995873596067243</v>
+        <v>0.44861244359747</v>
       </c>
       <c r="R2">
-        <v>0.53091593663391323</v>
+        <v>0.3513875557355265</v>
       </c>
       <c r="S2">
-        <v>0.25138311125374407</v>
+        <v>0.6227655755307562</v>
       </c>
       <c r="T2">
-        <v>0.69835214578017279</v>
+        <v>0.5122448982529174</v>
       </c>
       <c r="U2">
-        <v>0.91588785957914232</v>
+        <v>0.39393939407068873</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1001,64 +606,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.65765765765745055</v>
+        <v>0.3299393956809558</v>
       </c>
       <c r="C3">
-        <v>0.67775511115266873</v>
+        <v>0.8000000217163534</v>
       </c>
       <c r="D3">
-        <v>0.19650613435550487</v>
+        <v>0.35138755573486985</v>
       </c>
       <c r="E3">
-        <v>0.4538921050632807</v>
+        <v>0.5603603630958879</v>
       </c>
       <c r="F3">
-        <v>0.77033783815991208</v>
+        <v>0.29411764202241786</v>
       </c>
       <c r="G3">
-        <v>0.83527234046658017</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="H3">
-        <v>0.57199999053771722</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="I3">
-        <v>0.37656469674833043</v>
+        <v>0.29411764217634845</v>
       </c>
       <c r="J3">
-        <v>0.455172404660309</v>
+        <v>0.2477655822133189</v>
       </c>
       <c r="K3">
-        <v>0.85401318319253661</v>
+        <v>0.6153846145805015</v>
       </c>
       <c r="L3">
-        <v>0.65324298939610459</v>
+        <v>0.7522344179096702</v>
       </c>
       <c r="M3">
-        <v>0.65378600536653309</v>
+        <v>0.49230769125181023</v>
       </c>
       <c r="N3">
-        <v>0.47215682546039262</v>
+        <v>0.48775510318084303</v>
       </c>
       <c r="O3">
-        <v>0.43644086476375282</v>
+        <v>0.37723442441556604</v>
       </c>
       <c r="P3">
-        <v>0.68494363336348041</v>
+        <v>0.44024024179489907</v>
       </c>
       <c r="Q3">
-        <v>0.57169294290941852</v>
+        <v>0.6227655757273177</v>
       </c>
       <c r="R3">
-        <v>0.80331268366742148</v>
+        <v>0.2352941183191501</v>
       </c>
       <c r="S3">
-        <v>0.3150135541614828</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="T3">
-        <v>0.14172693256509644</v>
+        <v>0.6227655753837298</v>
       </c>
       <c r="U3">
-        <v>0.77794679919077758</v>
+        <v>0.587878789870694</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1066,64 +671,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.58965232916273946</v>
+        <v>0.18749999895000283</v>
       </c>
       <c r="C4">
-        <v>0.71938724992139835</v>
+        <v>0.4877551015597659</v>
       </c>
       <c r="D4">
-        <v>0.63510360773907304</v>
+        <v>0.5526315774215396</v>
       </c>
       <c r="E4">
-        <v>0.10599086439452256</v>
+        <v>0.3513875556943158</v>
       </c>
       <c r="F4">
-        <v>0.42538477080997505</v>
+        <v>0.7111124436479606</v>
       </c>
       <c r="G4">
-        <v>0.17317355864346567</v>
+        <v>0.5483611623526682</v>
       </c>
       <c r="H4">
-        <v>6.943016958032594E-2</v>
+        <v>0.7200410127057014</v>
       </c>
       <c r="I4">
-        <v>0.17083564140169405</v>
+        <v>0.6714298648027428</v>
       </c>
       <c r="J4">
-        <v>0.17707358579431792</v>
+        <v>0.2941176421754374</v>
       </c>
       <c r="K4">
-        <v>0.10700124845095758</v>
+        <v>0.4665155786320354</v>
       </c>
       <c r="L4">
-        <v>0.48000000913873581</v>
+        <v>0.7058823579093002</v>
       </c>
       <c r="M4">
-        <v>9.3103651012767158E-2</v>
+        <v>0.6334844273857786</v>
       </c>
       <c r="N4">
-        <v>0.66394761527519419</v>
+        <v>0.5122448984939558</v>
       </c>
       <c r="O4">
-        <v>0.25286763791423733</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="P4">
-        <v>0.60657031756529367</v>
+        <v>0.915279107562955</v>
       </c>
       <c r="Q4">
-        <v>0.3882408630770357</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>0.22360293203774678</v>
+        <v>0.4705882352941141</v>
       </c>
       <c r="S4">
-        <v>0.8573939140914314</v>
+        <v>0.7522344174544311</v>
       </c>
       <c r="T4">
-        <v>0.26569898577055689</v>
+        <v>0.2477655809899948</v>
       </c>
       <c r="U4">
-        <v>4.2846504466718123E-2</v>
+        <v>0.377234424415784</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1131,64 +736,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.88495234649028709</v>
+        <v>0.4877551013495756</v>
       </c>
       <c r="C5">
-        <v>0.35369742313343594</v>
+        <v>0.7546485254989957</v>
       </c>
       <c r="D5">
-        <v>0.65479717774595714</v>
+        <v>0.512244898650444</v>
       </c>
       <c r="E5">
-        <v>0.35442306778435306</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="F5">
-        <v>0.4976051789692576</v>
+        <v>0.3772344229741842</v>
       </c>
       <c r="G5">
-        <v>0.37209302325580318</v>
+        <v>0.4486124438454341</v>
       </c>
       <c r="H5">
-        <v>0.55525708974145593</v>
+        <v>0.7058823577498871</v>
       </c>
       <c r="I5">
-        <v>0.3917294783167305</v>
+        <v>0.38709677428294836</v>
       </c>
       <c r="J5">
-        <v>0.48042864790550166</v>
+        <v>0.7894736843513719</v>
       </c>
       <c r="K5">
-        <v>8.7247256416233848E-2</v>
+        <v>0.4877551090063339</v>
       </c>
       <c r="L5">
-        <v>8.7677805799960498E-2</v>
+        <v>0.12268907171271305</v>
       </c>
       <c r="M5">
-        <v>0.27261814009487711</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="N5">
-        <v>0.33333333514331004</v>
+        <v>0.7941941442471253</v>
       </c>
       <c r="O5">
-        <v>0.23577844237394285</v>
+        <v>0.3513875566668836</v>
       </c>
       <c r="P5">
-        <v>0.17128866817667296</v>
+        <v>0.3385135122751347</v>
       </c>
       <c r="Q5">
-        <v>0.79312687966572459</v>
+        <v>0.6235000017432689</v>
       </c>
       <c r="R5">
-        <v>0.58810811724683199</v>
+        <v>0.5122448986504379</v>
       </c>
       <c r="S5">
-        <v>0.54896216230627437</v>
+        <v>0.6070175458852118</v>
       </c>
       <c r="T5">
-        <v>0.79454035689023872</v>
+        <v>0.7951793680492393</v>
       </c>
       <c r="U5">
-        <v>0.74725150423856268</v>
+        <v>0.5925925902203715</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1196,79 +801,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.17398941506809146</v>
+        <v>0.48775509854607874</v>
       </c>
       <c r="C6">
-        <v>0.23916618796997291</v>
+        <v>0.14014466733416808</v>
       </c>
       <c r="D6">
-        <v>0.7806499733124691</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.32739575281172312</v>
+        <v>0.4941176444748513</v>
       </c>
       <c r="F6">
-        <v>0.49872851333892615</v>
+        <v>0.7522344179098192</v>
       </c>
       <c r="G6">
-        <v>0.13621610388151284</v>
+        <v>0.1697353297844544</v>
       </c>
       <c r="H6">
-        <v>0.62768449762891654</v>
+        <v>0.6486124445462759</v>
       </c>
       <c r="I6">
-        <v>0.66083534968378199</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.84795124821190193</v>
+        <v>0.1282051293264998</v>
       </c>
       <c r="K6">
-        <v>0.53609211059444328</v>
+        <v>0.7058823569723698</v>
       </c>
       <c r="L6">
-        <v>0.97200324000737692</v>
+        <v>0.3665155726140979</v>
       </c>
       <c r="M6">
-        <v>0.33830091072483232</v>
+        <v>0.5903540897756513</v>
       </c>
       <c r="N6">
-        <v>0.3652514733527274</v>
+        <v>0.6363636363636325</v>
       </c>
       <c r="O6">
-        <v>0.64377696292485065</v>
+        <v>0.6227655757273054</v>
       </c>
       <c r="P6">
-        <v>0.85985699002358684</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="Q6">
-        <v>0.57846765619754748</v>
+        <v>1.0</v>
       </c>
       <c r="R6">
-        <v>0.8387451066349082</v>
+        <v>0.729693524257863</v>
       </c>
       <c r="S6">
-        <v>0.53801956215670899</v>
+        <v>0.3772344243884366</v>
       </c>
       <c r="T6">
-        <v>0.59163450744277535</v>
+        <v>0.48387096774193517</v>
       </c>
       <c r="U6">
-        <v>0.54530226960078088</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD05FD-79EA-034D-A7F4-68FB42B931C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1337,64 +941,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.5330434878105198</v>
+        <v>0.41849489769893233</v>
       </c>
       <c r="C2">
-        <v>0.46026990887988622</v>
+        <v>0.3753676411844744</v>
       </c>
       <c r="D2">
-        <v>0.30307635424793217</v>
+        <v>0.5922780811628885</v>
       </c>
       <c r="E2">
-        <v>0.5752867404306371</v>
+        <v>0.6401785679751031</v>
       </c>
       <c r="F2">
-        <v>0.7350275855854429</v>
+        <v>0.5076375546316807</v>
       </c>
       <c r="G2">
-        <v>0.64755246733132144</v>
+        <v>0.5173611111111113</v>
       </c>
       <c r="H2">
-        <v>0.66591393232853258</v>
+        <v>0.3612089860175361</v>
       </c>
       <c r="I2">
-        <v>0.4118298248668123</v>
+        <v>0.5034492520784452</v>
       </c>
       <c r="J2">
-        <v>0.1744039037634571</v>
+        <v>0.5511029488718412</v>
       </c>
       <c r="K2">
-        <v>0.5954772904212392</v>
+        <v>0.5522344232386919</v>
       </c>
       <c r="L2">
-        <v>0.59094355557922762</v>
+        <v>0.5673624448926418</v>
       </c>
       <c r="M2">
-        <v>0.72967740996981389</v>
+        <v>0.4013875574454098</v>
       </c>
       <c r="N2">
-        <v>0.7087037130903191</v>
+        <v>0.4326375548987328</v>
       </c>
       <c r="O2">
-        <v>0.88652702497401592</v>
+        <v>0.3</v>
       </c>
       <c r="P2">
-        <v>0.23884386927363105</v>
+        <v>0.5697178503429703</v>
       </c>
       <c r="Q2">
-        <v>0.50995873568221706</v>
+        <v>0.623612444091125</v>
       </c>
       <c r="R2">
-        <v>0.73091595502677342</v>
+        <v>0.43263755744582305</v>
       </c>
       <c r="S2">
-        <v>0.45138312975245348</v>
+        <v>0.447765581964292</v>
       </c>
       <c r="T2">
-        <v>0.8983521642770057</v>
+        <v>0.49349489876099434</v>
       </c>
       <c r="U2">
-        <v>0.91588785985146726</v>
+        <v>0.569360269322328</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1402,64 +1006,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.5618443882176265</v>
+        <v>0.5299393948665642</v>
       </c>
       <c r="C3">
-        <v>0.47775509265497895</v>
+        <v>0.6355677672440762</v>
       </c>
       <c r="D3">
-        <v>0.39650615285378632</v>
+        <v>0.43263755744488724</v>
       </c>
       <c r="E3">
-        <v>0.64228306700089066</v>
+        <v>0.7603603658374222</v>
       </c>
       <c r="F3">
-        <v>0.57033781966085251</v>
+        <v>0.3711255591462384</v>
       </c>
       <c r="G3">
-        <v>0.63527232196441996</v>
+        <v>0.45555555555555555</v>
       </c>
       <c r="H3">
-        <v>0.77200000938667801</v>
+        <v>0.44776558243430886</v>
       </c>
       <c r="I3">
-        <v>0.57656471526883868</v>
+        <v>0.49411764106167994</v>
       </c>
       <c r="J3">
-        <v>0.65517242318012958</v>
+        <v>0.4477655811627792</v>
       </c>
       <c r="K3">
-        <v>0.65401316466614601</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L3">
-        <v>0.45324297086707271</v>
+        <v>0.552234418408208</v>
       </c>
       <c r="M3">
-        <v>0.56774193696752262</v>
+        <v>0.6673076907985769</v>
       </c>
       <c r="N3">
-        <v>0.67215684397968889</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O3">
-        <v>0.36879418392376223</v>
+        <v>0.5522344175102509</v>
       </c>
       <c r="P3">
-        <v>0.55882385576263338</v>
+        <v>0.5945945961986907</v>
       </c>
       <c r="Q3">
-        <v>0.37169292438949847</v>
+        <v>0.4477655772483158</v>
       </c>
       <c r="R3">
-        <v>0.63102069177230635</v>
+        <v>0.19638809906989954</v>
       </c>
       <c r="S3">
-        <v>0.51501357268258108</v>
+        <v>0.3629032254855177</v>
       </c>
       <c r="T3">
-        <v>0.14172693231615249</v>
+        <v>0.447765577247951</v>
       </c>
       <c r="U3">
-        <v>0.57794678041473957</v>
+        <v>0.38787879141182285</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1467,64 +1071,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.38965231061560429</v>
+        <v>0.0636904712013694</v>
       </c>
       <c r="C4">
-        <v>0.82125364834773473</v>
+        <v>0.58150510209233</v>
       </c>
       <c r="D4">
-        <v>0.43510358919856462</v>
+        <v>0.47138157637745864</v>
       </c>
       <c r="E4">
-        <v>0.10599086412264129</v>
+        <v>0.5076375540169508</v>
       </c>
       <c r="F4">
-        <v>0.22538475226982371</v>
+        <v>0.6717966214888584</v>
       </c>
       <c r="G4">
-        <v>0.18292682848079816</v>
+        <v>0.5671111638649879</v>
       </c>
       <c r="H4">
-        <v>1.5877050422586776E-15</v>
+        <v>0.5637910162073947</v>
       </c>
       <c r="I4">
-        <v>0.16454065776764348</v>
+        <v>0.5522344190725291</v>
       </c>
       <c r="J4">
-        <v>0.17707358552221908</v>
+        <v>0.4941176403479347</v>
       </c>
       <c r="K4">
-        <v>9.8717348134071931E-2</v>
+        <v>0.4477655816969999</v>
       </c>
       <c r="L4">
-        <v>0.27999999059141795</v>
+        <v>0.5058823597364026</v>
       </c>
       <c r="M4">
-        <v>0.29310366955845352</v>
+        <v>0.5522344177340264</v>
       </c>
       <c r="N4">
-        <v>0.46394759673493435</v>
+        <v>0.44821428506244304</v>
       </c>
       <c r="O4">
-        <v>0.25286763765025427</v>
+        <v>0.7606636782442275</v>
       </c>
       <c r="P4">
-        <v>0.40657029902482211</v>
+        <v>0.8215291083242062</v>
       </c>
       <c r="Q4">
-        <v>0.58824088161860344</v>
+        <v>0.311328121347669</v>
       </c>
       <c r="R4">
-        <v>0.4236029504650986</v>
+        <v>0.5177389367086527</v>
       </c>
       <c r="S4">
-        <v>0.65739389554210237</v>
+        <v>0.5522344184236087</v>
       </c>
       <c r="T4">
-        <v>0.46569900431988592</v>
+        <v>0.44776558092747143</v>
       </c>
       <c r="U4">
-        <v>0.20834618477086503</v>
+        <v>0.5522344175101168</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1532,64 +1136,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.8849523467621685</v>
+        <v>0.5065051014251423</v>
       </c>
       <c r="C5">
-        <v>0.55369744168276491</v>
+        <v>0.708333332715172</v>
       </c>
       <c r="D5">
-        <v>0.45479715920290426</v>
+        <v>0.4934948985748592</v>
       </c>
       <c r="E5">
-        <v>0.55442308633368209</v>
+        <v>0.4976190476190476</v>
       </c>
       <c r="F5">
-        <v>0.69760519751858663</v>
+        <v>0.5772344238687389</v>
       </c>
       <c r="G5">
-        <v>0.53190986934852935</v>
+        <v>0.6236124418778911</v>
       </c>
       <c r="H5">
-        <v>0.35525707119941663</v>
+        <v>0.5058823589383166</v>
       </c>
       <c r="I5">
-        <v>0.3917294780448492</v>
+        <v>0.5832661308650464</v>
       </c>
       <c r="J5">
-        <v>0.28042862936335711</v>
+        <v>0.661469786523975</v>
       </c>
       <c r="K5">
-        <v>0.28724727496556612</v>
+        <v>0.506505103259193</v>
       </c>
       <c r="L5">
-        <v>9.4202898550569514E-2</v>
+        <v>0.2039390723166808</v>
       </c>
       <c r="M5">
-        <v>0.27261813982299582</v>
+        <v>0.38198563743788017</v>
       </c>
       <c r="N5">
-        <v>0.36389049243308247</v>
+        <v>0.7004441462578516</v>
       </c>
       <c r="O5">
-        <v>0.43577846092327183</v>
+        <v>0.5076375540175649</v>
       </c>
       <c r="P5">
-        <v>0.3712886867312446</v>
+        <v>0.5135135120507913</v>
       </c>
       <c r="Q5">
-        <v>0.79312687993760589</v>
+        <v>0.8235000048264093</v>
       </c>
       <c r="R5">
-        <v>0.38810809869750301</v>
+        <v>0.4934948985748391</v>
       </c>
       <c r="S5">
-        <v>0.34896214375694529</v>
+        <v>0.4070175471288323</v>
       </c>
       <c r="T5">
-        <v>0.79454035716212057</v>
+        <v>0.5951793692361558</v>
       </c>
       <c r="U5">
-        <v>0.80290116699801117</v>
+        <v>0.7488425896392954</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1597,79 +1201,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.17398941479621033</v>
+        <v>0.5940031707280656</v>
       </c>
       <c r="C6">
-        <v>0.43916620651930199</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.78474336707483872</v>
+        <v>0.6562499970880228</v>
       </c>
       <c r="E6">
-        <v>0.5273957713610522</v>
+        <v>0.3471901220612989</v>
       </c>
       <c r="F6">
-        <v>0.4987285136108075</v>
+        <v>0.5522344185760848</v>
       </c>
       <c r="G6">
-        <v>0.13621610360963146</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.42768447907344675</v>
+        <v>0.5213063953794598</v>
       </c>
       <c r="I6">
-        <v>0.53038674032023003</v>
+        <v>0.504464285714282</v>
       </c>
       <c r="J6">
-        <v>0.64795122966256968</v>
+        <v>0.22195512746922993</v>
       </c>
       <c r="K6">
-        <v>0.33648619307477495</v>
+        <v>0.5478134777969097</v>
       </c>
       <c r="L6">
-        <v>0.7720032214580369</v>
+        <v>0.44776558092747143</v>
       </c>
       <c r="M6">
-        <v>0.53830092927416151</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="N6">
-        <v>0.56525149190205648</v>
+        <v>0.5754007252928042</v>
       </c>
       <c r="O6">
-        <v>0.64377696319673194</v>
+        <v>0.4477655772479377</v>
       </c>
       <c r="P6">
-        <v>0.85985699029546803</v>
+        <v>0.5522344229598762</v>
       </c>
       <c r="Q6">
-        <v>0.3784676376482185</v>
+        <v>0.9714843750000004</v>
       </c>
       <c r="R6">
-        <v>0.83874510690678938</v>
+        <v>0.6484435253296124</v>
       </c>
       <c r="S6">
-        <v>0.73801958070603846</v>
+        <v>0.5772344225608865</v>
       </c>
       <c r="T6">
-        <v>0.5916345077216405</v>
+        <v>0.5937499997995678</v>
       </c>
       <c r="U6">
-        <v>0.34530225105145179</v>
+        <v>0.48302730350621664</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330B0996-7FF5-0F4C-B2DA-CA06E3746669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1738,64 +1341,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53304348747095187</v>
+        <v>0.3122448996793921</v>
       </c>
       <c r="C2">
-        <v>0.26026989071867618</v>
+        <v>0.49411764110431255</v>
       </c>
       <c r="D2">
-        <v>0.50307637225082424</v>
+        <v>0.7826086954391182</v>
       </c>
       <c r="E2">
-        <v>0.57528674046887762</v>
+        <v>0.6877550978731362</v>
       </c>
       <c r="F2">
-        <v>0.73502758502527432</v>
+        <v>0.5513875552583732</v>
       </c>
       <c r="G2">
-        <v>0.44755244912747283</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="H2">
-        <v>0.46591391411078942</v>
+        <v>0.4799589846310685</v>
       </c>
       <c r="I2">
-        <v>0.61182984308171195</v>
+        <v>0.44861244553469426</v>
       </c>
       <c r="J2">
-        <v>0.1744039043223887</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.39547727220059409</v>
+        <v>0.3772344235471178</v>
       </c>
       <c r="L2">
-        <v>0.39094353736020254</v>
+        <v>0.44861244484265494</v>
       </c>
       <c r="M2">
-        <v>0.72967741052385238</v>
+        <v>0.5201375560595399</v>
       </c>
       <c r="N2">
-        <v>0.70870371253106268</v>
+        <v>0.5513875551573502</v>
       </c>
       <c r="O2">
-        <v>0.77379680136880713</v>
+        <v>0.1358490569872537</v>
       </c>
       <c r="P2">
-        <v>0.43884388750882747</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q2">
-        <v>0.70995875392092156</v>
+        <v>0.4486124431147469</v>
       </c>
       <c r="R2">
-        <v>0.7309159544993481</v>
+        <v>0.5513875560595858</v>
       </c>
       <c r="S2">
-        <v>0.37362636626618678</v>
+        <v>0.5513875606452541</v>
       </c>
       <c r="T2">
-        <v>0.6983521460434059</v>
+        <v>0.31224489813265766</v>
       </c>
       <c r="U2">
-        <v>0.71588784161698593</v>
+        <v>0.3939393943786854</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1803,64 +1406,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.6025641025877706</v>
+        <v>0.3939393939393936</v>
       </c>
       <c r="C3">
-        <v>0.47775509318122089</v>
+        <v>0.6104733559481601</v>
       </c>
       <c r="D3">
-        <v>0.19650613461577171</v>
+        <v>0.551387556059071</v>
       </c>
       <c r="E3">
-        <v>0.65389212303472877</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F3">
-        <v>0.57033782019835477</v>
+        <v>0.49411764174161815</v>
       </c>
       <c r="G3">
-        <v>0.63527232194003236</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="H3">
-        <v>0.7720000089139617</v>
+        <v>0.31563204822640345</v>
       </c>
       <c r="I3">
-        <v>0.37656469695814826</v>
+        <v>0.3421176406372279</v>
       </c>
       <c r="J3">
-        <v>0.65517242270368869</v>
+        <v>0.363000741089022</v>
       </c>
       <c r="K3">
-        <v>0.65401316513764718</v>
+        <v>0.43790172155733537</v>
       </c>
       <c r="L3">
-        <v>0.45324297134048047</v>
+        <v>0.6082344180205316</v>
       </c>
       <c r="M3">
-        <v>0.65378600514278595</v>
+        <v>0.4923076912840721</v>
       </c>
       <c r="N3">
-        <v>0.67215684350163107</v>
+        <v>0.6877551002141822</v>
       </c>
       <c r="O3">
-        <v>0.43833959641464471</v>
+        <v>0.3772344305978989</v>
       </c>
       <c r="P3">
-        <v>0.68494363314598383</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q3">
-        <v>0.57169294269190951</v>
+        <v>0.6227655751853974</v>
       </c>
       <c r="R3">
-        <v>0.80331268345290296</v>
+        <v>0.27027027200101905</v>
       </c>
       <c r="S3">
-        <v>0.51501357220923505</v>
+        <v>0.1629032263130685</v>
       </c>
       <c r="T3">
-        <v>0.34172695061741654</v>
+        <v>0.6227655747383652</v>
       </c>
       <c r="U3">
-        <v>0.77794679896589991</v>
+        <v>0.5878787898049765</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1868,64 +1471,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.44871794987115177</v>
+        <v>0.2636904686350482</v>
       </c>
       <c r="C4">
-        <v>0.82125364784983124</v>
+        <v>0.6877551003205149</v>
       </c>
       <c r="D4">
-        <v>0.63510360751917894</v>
+        <v>0.3526315787683983</v>
       </c>
       <c r="E4">
-        <v>0.30599088246119865</v>
+        <v>0.5513875550405921</v>
       </c>
       <c r="F4">
-        <v>0.42485432821480479</v>
+        <v>0.5111124443929386</v>
       </c>
       <c r="G4">
-        <v>0.37317357662606987</v>
+        <v>0.7483611611485878</v>
       </c>
       <c r="H4">
-        <v>2.6489415508767784E-2</v>
+        <v>0.5200410161701848</v>
       </c>
       <c r="I4">
-        <v>0.16454065825175665</v>
+        <v>0.5200000312132023</v>
       </c>
       <c r="J4">
-        <v>0.37707360380030241</v>
+        <v>0.34211763915083626</v>
       </c>
       <c r="K4">
-        <v>9.871734862048416E-2</v>
+        <v>0.2665155809016633</v>
       </c>
       <c r="L4">
-        <v>0.48000000891247668</v>
+        <v>0.6578823587235293</v>
       </c>
       <c r="M4">
-        <v>9.3103651227286338E-2</v>
+        <v>0.4334844370491284</v>
       </c>
       <c r="N4">
-        <v>0.46394759721852358</v>
+        <v>0.3122448998350351</v>
       </c>
       <c r="O4">
-        <v>0.45286765596965917</v>
+        <v>0.6315789473684188</v>
       </c>
       <c r="P4">
-        <v>0.52212389434276785</v>
+        <v>0.715279108376914</v>
       </c>
       <c r="Q4">
-        <v>0.43448279094432823</v>
+        <v>0.4375000046749826</v>
       </c>
       <c r="R4">
-        <v>0.22360293225226602</v>
+        <v>0.6499999825587955</v>
       </c>
       <c r="S4">
-        <v>0.85739391387691222</v>
+        <v>0.7051281863920584</v>
       </c>
       <c r="T4">
-        <v>0.46569900382100687</v>
+        <v>0.271482040109089</v>
       </c>
       <c r="U4">
-        <v>4.2846504681235499E-2</v>
+        <v>0.37723443059808026</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1933,64 +1536,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.68495232843470333</v>
+        <v>0.6877551008056071</v>
       </c>
       <c r="C5">
-        <v>0.55369744118674569</v>
+        <v>0.554648526269926</v>
       </c>
       <c r="D5">
-        <v>0.45479715968930484</v>
+        <v>0.31224489919440696</v>
       </c>
       <c r="E5">
-        <v>0.41347159103428355</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="F5">
-        <v>0.49760517919216019</v>
+        <v>0.4412344199739864</v>
       </c>
       <c r="G5">
-        <v>0.33190985101371956</v>
+        <v>0.44861244573762726</v>
       </c>
       <c r="H5">
-        <v>0.35525707169232268</v>
+        <v>0.657882359362664</v>
       </c>
       <c r="I5">
-        <v>0.59172949637965888</v>
+        <v>0.43999999866669437</v>
       </c>
       <c r="J5">
-        <v>0.28042862984975797</v>
+        <v>0.8614697853425295</v>
       </c>
       <c r="K5">
-        <v>0.28724727446484077</v>
+        <v>0.6877550966494278</v>
       </c>
       <c r="L5">
-        <v>0.28767782383862373</v>
+        <v>0.3226890703663141</v>
       </c>
       <c r="M5">
-        <v>0.47261815815780556</v>
+        <v>0.5513875547809755</v>
       </c>
       <c r="N5">
-        <v>0.22350124842405217</v>
+        <v>0.5941941450842014</v>
       </c>
       <c r="O5">
-        <v>0.23577844258846209</v>
+        <v>0.5513875551376468</v>
       </c>
       <c r="P5">
-        <v>0.17128866839643461</v>
+        <v>0.33851351233467253</v>
       </c>
       <c r="Q5">
-        <v>0.79312687945123339</v>
+        <v>0.6874999958628493</v>
       </c>
       <c r="R5">
-        <v>0.58810811702287313</v>
+        <v>0.3122448991944109</v>
       </c>
       <c r="S5">
-        <v>0.53712010886226169</v>
+        <v>0.6070175458199379</v>
       </c>
       <c r="T5">
-        <v>0.5945403388268925</v>
+        <v>0.7311793749284061</v>
       </c>
       <c r="U5">
-        <v>0.8029011665116107</v>
+        <v>0.7925925888734594</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1998,79 +1601,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.17398941528261092</v>
+        <v>0.5757575757575752</v>
       </c>
       <c r="C6">
-        <v>0.23916618818449226</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.78474336658843813</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.52739577086440181</v>
+        <v>0.29411764523984574</v>
       </c>
       <c r="F6">
-        <v>0.29872849527599782</v>
+        <v>0.6082344180207733</v>
       </c>
       <c r="G6">
-        <v>0.33621612194444128</v>
+        <v>0.13636363732835627</v>
       </c>
       <c r="H6">
-        <v>0.62768449741438559</v>
+        <v>0.448612444311834</v>
       </c>
       <c r="I6">
-        <v>0.46083533162836243</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.64795123014897305</v>
+        <v>0.3282051282051317</v>
       </c>
       <c r="K6">
-        <v>0.53648621139951069</v>
+        <v>0.6842105245868126</v>
       </c>
       <c r="L6">
-        <v>0.77289188431424605</v>
+        <v>0.5665155629573384</v>
       </c>
       <c r="M6">
-        <v>0.53830092878776092</v>
+        <v>0.3903540901506716</v>
       </c>
       <c r="N6">
-        <v>0.3652514735672468</v>
+        <v>0.44861244521903476</v>
       </c>
       <c r="O6">
-        <v>0.5101837255730618</v>
+        <v>0.6227655751858303</v>
       </c>
       <c r="P6">
-        <v>0.65985697196065773</v>
+        <v>0.7410050974691347</v>
       </c>
       <c r="Q6">
-        <v>0.37846763814123258</v>
+        <v>0.8124999999999993</v>
       </c>
       <c r="R6">
-        <v>0.63874508871753977</v>
+        <v>0.5296935239142347</v>
       </c>
       <c r="S6">
-        <v>0.53801956237122872</v>
+        <v>0.4412344183304955</v>
       </c>
       <c r="T6">
-        <v>0.39163448937984674</v>
+        <v>0.3992696293688938</v>
       </c>
       <c r="U6">
-        <v>0.34530225153784661</v>
+        <v>0.5513875551223398</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6220369-F5D1-D745-809D-82C9009FE5ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -2139,64 +1741,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53304348775715993</v>
+        <v>0.512244898581056</v>
       </c>
       <c r="C2">
-        <v>0.2602698897939178</v>
+        <v>0.4941176412245134</v>
       </c>
       <c r="D2">
-        <v>0.30307635404052868</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E2">
-        <v>0.77528675931553837</v>
+        <v>0.4877550995280209</v>
       </c>
       <c r="F2">
-        <v>0.7350275856978441</v>
+        <v>0.3513875601183566</v>
       </c>
       <c r="G2">
-        <v>0.44755244843782693</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="H2">
-        <v>0.6659139324429193</v>
+        <v>0.4799589832419781</v>
       </c>
       <c r="I2">
-        <v>0.41182982475279367</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="J2">
-        <v>0.37440392283500573</v>
+        <v>0.5058823597563322</v>
       </c>
       <c r="K2">
-        <v>0.39547727145128375</v>
+        <v>0.5772344230856936</v>
       </c>
       <c r="L2">
-        <v>0.58270754540183067</v>
+        <v>0.4486124452737027</v>
       </c>
       <c r="M2">
-        <v>0.92967742893505612</v>
+        <v>0.5201375546714706</v>
       </c>
       <c r="N2">
-        <v>0.50870369412081085</v>
+        <v>0.5513875552826204</v>
       </c>
       <c r="O2">
-        <v>0.97379682035279225</v>
+        <v>0.13584905764520985</v>
       </c>
       <c r="P2">
-        <v>0.43884388824092674</v>
+        <v>0.4227655730923865</v>
       </c>
       <c r="Q2">
-        <v>0.70995875465456382</v>
+        <v>0.6486124435974715</v>
       </c>
       <c r="R2">
-        <v>0.73091595521948272</v>
+        <v>0.551387556575312</v>
       </c>
       <c r="S2">
-        <v>0.45138312994696866</v>
+        <v>0.5714697645965867</v>
       </c>
       <c r="T2">
-        <v>0.69835214531150003</v>
+        <v>0.3122448981326577</v>
       </c>
       <c r="U2">
-        <v>0.71588784076095346</v>
+        <v>0.5939393919186583</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2204,64 +1806,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.76184440720903812</v>
+        <v>0.32993939831741925</v>
       </c>
       <c r="C3">
-        <v>0.47775509244061648</v>
+        <v>0.8000000125478127</v>
       </c>
       <c r="D3">
-        <v>0.39650615306715037</v>
+        <v>0.5513875565745875</v>
       </c>
       <c r="E3">
-        <v>0.45389210457489904</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F3">
-        <v>0.65920344903944728</v>
+        <v>0.4941176420224148</v>
       </c>
       <c r="G3">
-        <v>0.82635328620661708</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H3">
-        <v>0.77200000959971737</v>
+        <v>0.5156320482264436</v>
       </c>
       <c r="I3">
-        <v>0.37656469628211897</v>
+        <v>0.4941176412810566</v>
       </c>
       <c r="J3">
-        <v>0.45517240419287991</v>
+        <v>0.30769232972849037</v>
       </c>
       <c r="K3">
-        <v>0.85401318365491419</v>
+        <v>0.4379017219548861</v>
       </c>
       <c r="L3">
-        <v>0.65324298985718676</v>
+        <v>0.7522344181185111</v>
       </c>
       <c r="M3">
-        <v>0.45378598662669867</v>
+        <v>0.6923076910032789</v>
       </c>
       <c r="N3">
-        <v>0.6721568441937279</v>
+        <v>0.687755093263944</v>
       </c>
       <c r="O3">
-        <v>0.43833959709153891</v>
+        <v>0.5772344235470466</v>
       </c>
       <c r="P3">
-        <v>0.48494361463087993</v>
+        <v>0.6402402419792654</v>
       </c>
       <c r="Q3">
-        <v>0.37169292417703503</v>
+        <v>0.42276557684025146</v>
       </c>
       <c r="R3">
-        <v>0.60331266492873747</v>
+        <v>0.357754004955767</v>
       </c>
       <c r="S3">
-        <v>0.31501355369555117</v>
+        <v>0.3629032250233033</v>
       </c>
       <c r="T3">
-        <v>0.34172695130254616</v>
+        <v>0.4227655783733996</v>
       </c>
       <c r="U3">
-        <v>0.7779467996517534</v>
+        <v>0.45454545454545253</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2269,64 +1871,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.58965232962391423</v>
+        <v>0.2636904675713584</v>
       </c>
       <c r="C4">
-        <v>0.82125364853666527</v>
+        <v>0.48775510197519084</v>
       </c>
       <c r="D4">
-        <v>0.4351035890067701</v>
+        <v>0.35263157957094354</v>
       </c>
       <c r="E4">
-        <v>0.10599086393214714</v>
+        <v>0.35138755704322183</v>
       </c>
       <c r="F4">
-        <v>0.22538475207844905</v>
+        <v>0.5111124447606105</v>
       </c>
       <c r="G4">
-        <v>0.3731735773814519</v>
+        <v>0.7483611603427334</v>
       </c>
       <c r="H4">
-        <v>9.9982499936587754E-9</v>
+        <v>0.720041020596436</v>
       </c>
       <c r="I4">
-        <v>0.36454067677575636</v>
+        <v>0.47142987339485176</v>
       </c>
       <c r="J4">
-        <v>0.17707358533194723</v>
+        <v>0.49411764120655977</v>
       </c>
       <c r="K4">
-        <v>0.29871736714442881</v>
+        <v>0.26651558109886103</v>
       </c>
       <c r="L4">
-        <v>0.48000000959978939</v>
+        <v>0.5058823589682238</v>
       </c>
       <c r="M4">
-        <v>0.20952571266904296</v>
+        <v>0.4334844347930374</v>
       </c>
       <c r="N4">
-        <v>0.46394759654249929</v>
+        <v>0.31224490054690324</v>
       </c>
       <c r="O4">
-        <v>0.25286763745859275</v>
+        <v>0.560663679446285</v>
       </c>
       <c r="P4">
-        <v>0.40657029883285212</v>
+        <v>0.9152791080099181</v>
       </c>
       <c r="Q4">
-        <v>0.38824086261069091</v>
+        <v>0.3</v>
       </c>
       <c r="R4">
-        <v>0.41495711606581426</v>
+        <v>0.6499999836780387</v>
       </c>
       <c r="S4">
-        <v>0.65739389535160819</v>
+        <v>0.5522344188710361</v>
       </c>
       <c r="T4">
-        <v>0.26569898530818148</v>
+        <v>0.36000002208900633</v>
       </c>
       <c r="U4">
-        <v>0.24284652320213754</v>
+        <v>0.5772344235471071</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2334,64 +1936,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.68495232775373849</v>
+        <v>0.6877551005301252</v>
       </c>
       <c r="C5">
-        <v>0.35369742267106047</v>
+        <v>0.5546485266430352</v>
       </c>
       <c r="D5">
-        <v>0.65479717821339678</v>
+        <v>0.3122448994699351</v>
       </c>
       <c r="E5">
-        <v>0.55442308652417627</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="F5">
-        <v>0.49760517850777275</v>
+        <v>0.37723443534559264</v>
       </c>
       <c r="G5">
-        <v>0.33190985033671305</v>
+        <v>0.6486124435969018</v>
       </c>
       <c r="H5">
-        <v>0.36488081960887359</v>
+        <v>0.5058823588482244</v>
       </c>
       <c r="I5">
-        <v>0.59172949705535294</v>
+        <v>0.5870967723752267</v>
       </c>
       <c r="J5">
-        <v>0.41758361739148164</v>
+        <v>0.7435897440983121</v>
       </c>
       <c r="K5">
-        <v>8.7247255953858446E-2</v>
+        <v>0.6877550897002002</v>
       </c>
       <c r="L5">
-        <v>8.7677805337585221E-2</v>
+        <v>0.32268907082042425</v>
       </c>
       <c r="M5">
-        <v>0.47261815883470026</v>
+        <v>0.35138755714406195</v>
       </c>
       <c r="N5">
-        <v>0.16389047342137802</v>
+        <v>0.7941941428999323</v>
       </c>
       <c r="O5">
-        <v>0.43577846111376595</v>
+        <v>0.35138755513764597</v>
       </c>
       <c r="P5">
-        <v>0.3712886869198801</v>
+        <v>0.5385135108351103</v>
       </c>
       <c r="Q5">
-        <v>0.59312686092684241</v>
+        <v>0.6235000026075496</v>
       </c>
       <c r="R5">
-        <v>0.58810811770800586</v>
+        <v>0.31224489946994927</v>
       </c>
       <c r="S5">
-        <v>0.54896216276864984</v>
+        <v>0.47368421134887023</v>
       </c>
       <c r="T5">
-        <v>0.59454033815163387</v>
+        <v>0.7951793576577632</v>
       </c>
       <c r="U5">
-        <v>0.69387787198321416</v>
+        <v>0.5925925905280621</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2399,68 +2001,467 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.37398943380804872</v>
+        <v>0.6877551015766203</v>
       </c>
       <c r="C6">
-        <v>0.43916620670979617</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.66423350874057685</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.3273957523493477</v>
+        <v>0.4941176444748492</v>
       </c>
       <c r="F6">
-        <v>0.29872849459910311</v>
+        <v>0.7522344176711834</v>
       </c>
       <c r="G6">
-        <v>0.13621610341913742</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.62768449809005455</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I6">
-        <v>0.46083533094484019</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.64795122947300254</v>
+        <v>0.12820512820512897</v>
       </c>
       <c r="K6">
-        <v>0.53648621208524916</v>
+        <v>0.5058823587718901</v>
       </c>
       <c r="L6">
-        <v>0.84713169967504243</v>
+        <v>0.5665155689674168</v>
       </c>
       <c r="M6">
-        <v>0.33830091026245701</v>
+        <v>0.39035409015067213</v>
       </c>
       <c r="N6">
-        <v>0.56525149209134062</v>
+        <v>0.4486124450268393</v>
       </c>
       <c r="O6">
-        <v>0.44377694418589209</v>
+        <v>0.42276557684019583</v>
       </c>
       <c r="P6">
-        <v>0.65985697128488452</v>
+        <v>0.7522344071818873</v>
       </c>
       <c r="Q6">
-        <v>0.57846765665871847</v>
+        <v>0.8</v>
       </c>
       <c r="R6">
-        <v>0.63874508789670137</v>
+        <v>0.5296935245064079</v>
       </c>
       <c r="S6">
-        <v>0.53801956169433396</v>
+        <v>0.37723443471523954</v>
       </c>
       <c r="T6">
-        <v>0.39163448870260975</v>
+        <v>0.3992696297694363</v>
       </c>
       <c r="U6">
-        <v>0.54530227006315624</v>
+        <v>0.35138755924463744</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.3122448989539185</v>
+      </c>
+      <c r="C2">
+        <v>0.2941176417579892</v>
+      </c>
+      <c r="D2">
+        <v>0.7826086958126335</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.3513875547809742</v>
+      </c>
+      <c r="G2">
+        <v>0.4111111111111111</v>
+      </c>
+      <c r="H2">
+        <v>0.2799589854140719</v>
+      </c>
+      <c r="I2">
+        <v>0.6486124436381425</v>
+      </c>
+      <c r="J2">
+        <v>0.7058823576680332</v>
+      </c>
+      <c r="K2">
+        <v>0.5772344232637963</v>
+      </c>
+      <c r="L2">
+        <v>0.6486124443445321</v>
+      </c>
+      <c r="M2">
+        <v>0.3201375568424579</v>
+      </c>
+      <c r="N2">
+        <v>0.35138755565550245</v>
+      </c>
+      <c r="O2">
+        <v>0.3358490564994259</v>
+      </c>
+      <c r="P2">
+        <v>0.422765575986386</v>
+      </c>
+      <c r="Q2">
+        <v>0.648612443224595</v>
+      </c>
+      <c r="R2">
+        <v>0.3513875568425425</v>
+      </c>
+      <c r="S2">
+        <v>0.42276557666992687</v>
+      </c>
+      <c r="T2">
+        <v>0.3122448981326574</v>
+      </c>
+      <c r="U2">
+        <v>0.5925925925925883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.5299393949459026</v>
+      </c>
+      <c r="C3">
+        <v>0.8000000336975748</v>
+      </c>
+      <c r="D3">
+        <v>0.35138755684182643</v>
+      </c>
+      <c r="E3">
+        <v>0.7603603622661268</v>
+      </c>
+      <c r="F3">
+        <v>0.30769230792816493</v>
+      </c>
+      <c r="G3">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="H3">
+        <v>0.3156320484750979</v>
+      </c>
+      <c r="I3">
+        <v>0.2941176417125207</v>
+      </c>
+      <c r="J3">
+        <v>0.24776558167560056</v>
+      </c>
+      <c r="K3">
+        <v>0.6379017208124387</v>
+      </c>
+      <c r="L3">
+        <v>0.7522344178749967</v>
+      </c>
+      <c r="M3">
+        <v>0.6923076904344728</v>
+      </c>
+      <c r="N3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O3">
+        <v>0.5772344234137702</v>
+      </c>
+      <c r="P3">
+        <v>0.6402402410848771</v>
+      </c>
+      <c r="Q3">
+        <v>0.4227655764448503</v>
+      </c>
+      <c r="R3">
+        <v>0.35</v>
+      </c>
+      <c r="S3">
+        <v>0.25</v>
+      </c>
+      <c r="T3">
+        <v>0.422765576444804</v>
+      </c>
+      <c r="U3">
+        <v>0.38787879050325047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.06369047120608234</v>
+      </c>
+      <c r="C4">
+        <v>0.6877551010459731</v>
+      </c>
+      <c r="D4">
+        <v>0.5526315773016741</v>
+      </c>
+      <c r="E4">
+        <v>0.35138755551053175</v>
+      </c>
+      <c r="F4">
+        <v>0.5769230769230764</v>
+      </c>
+      <c r="G4">
+        <v>0.7483611618736602</v>
+      </c>
+      <c r="H4">
+        <v>0.7200410156682946</v>
+      </c>
+      <c r="I4">
+        <v>0.6714298648027428</v>
+      </c>
+      <c r="J4">
+        <v>0.2941176470588256</v>
+      </c>
+      <c r="K4">
+        <v>0.2665155809355207</v>
+      </c>
+      <c r="L4">
+        <v>0.7058823584468897</v>
+      </c>
+      <c r="M4">
+        <v>0.6334844273525185</v>
+      </c>
+      <c r="N4">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="O4">
+        <v>0.7307692307692272</v>
+      </c>
+      <c r="P4">
+        <v>0.7152791081193142</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.45</v>
+      </c>
+      <c r="S4">
+        <v>0.75</v>
+      </c>
+      <c r="T4">
+        <v>0.41379310344827536</v>
+      </c>
+      <c r="U4">
+        <v>0.5772344234138215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.6877551008191964</v>
+      </c>
+      <c r="C5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D5">
+        <v>0.31224489918084053</v>
+      </c>
+      <c r="E5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F5">
+        <v>0.5772344239064999</v>
+      </c>
+      <c r="G5">
+        <v>0.6486124432240051</v>
+      </c>
+      <c r="H5">
+        <v>0.7058823582875389</v>
+      </c>
+      <c r="I5">
+        <v>0.3870967745501491</v>
+      </c>
+      <c r="J5">
+        <v>0.7941176470588199</v>
+      </c>
+      <c r="K5">
+        <v>0.6877551009562832</v>
+      </c>
+      <c r="L5">
+        <v>0.12268907173139042</v>
+      </c>
+      <c r="M5">
+        <v>0.35138755707090574</v>
+      </c>
+      <c r="N5">
+        <v>0.5941941428999301</v>
+      </c>
+      <c r="O5">
+        <v>0.35138755551050926</v>
+      </c>
+      <c r="P5">
+        <v>0.53851351164586</v>
+      </c>
+      <c r="Q5">
+        <v>0.8235000010080538</v>
+      </c>
+      <c r="R5">
+        <v>0.31224489918081544</v>
+      </c>
+      <c r="S5">
+        <v>0.4070175465175986</v>
+      </c>
+      <c r="T5">
+        <v>0.5951793691983722</v>
+      </c>
+      <c r="U5">
+        <v>0.5925925925925919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.6877551012037459</v>
+      </c>
+      <c r="C6">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="F6">
+        <v>0.7522344178751577</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.6486124438062497</v>
+      </c>
+      <c r="I6">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="J6">
+        <v>0.3282051282051319</v>
+      </c>
+      <c r="K6">
+        <v>0.5058823581397264</v>
+      </c>
+      <c r="L6">
+        <v>0.3665155724013049</v>
+      </c>
+      <c r="M6">
+        <v>0.5128205127698805</v>
+      </c>
+      <c r="N6">
+        <v>0.6486124458879874</v>
+      </c>
+      <c r="O6">
+        <v>0.4227655764448296</v>
+      </c>
+      <c r="P6">
+        <v>0.6799999999999995</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>0.7296935238745166</v>
+      </c>
+      <c r="S6">
+        <v>0.5772344233078934</v>
+      </c>
+      <c r="T6">
+        <v>0.5992696286237762</v>
+      </c>
+      <c r="U6">
+        <v>0.35138755561275764</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>